--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk2-Kremen2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dkk2-Kremen2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.305742</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H2">
-        <v>0.9172259999999999</v>
+        <v>0.008975</v>
       </c>
       <c r="I2">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="J2">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1727373333333333</v>
+        <v>0.5503976666666667</v>
       </c>
       <c r="N2">
-        <v>0.518212</v>
+        <v>1.651193</v>
       </c>
       <c r="O2">
-        <v>0.3196032127335063</v>
+        <v>0.8380541753160734</v>
       </c>
       <c r="P2">
-        <v>0.3196032127335063</v>
+        <v>0.8380541753160734</v>
       </c>
       <c r="Q2">
-        <v>0.05281305776799999</v>
+        <v>0.001646606352777778</v>
       </c>
       <c r="R2">
-        <v>0.4753175199119999</v>
+        <v>0.014819457175</v>
       </c>
       <c r="S2">
-        <v>0.01119185524698013</v>
+        <v>0.0002988847804208527</v>
       </c>
       <c r="T2">
-        <v>0.01119185524698013</v>
+        <v>0.0002988847804208527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.305742</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H3">
-        <v>0.9172259999999999</v>
+        <v>0.008975</v>
       </c>
       <c r="I3">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="J3">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.297871</v>
       </c>
       <c r="O3">
-        <v>0.1837096180330487</v>
+        <v>0.1511828328097164</v>
       </c>
       <c r="P3">
-        <v>0.1837096180330487</v>
+        <v>0.1511828328097164</v>
       </c>
       <c r="Q3">
-        <v>0.03035722509399999</v>
+        <v>0.0002970435805555555</v>
       </c>
       <c r="R3">
-        <v>0.2732150258459999</v>
+        <v>0.002673392225</v>
       </c>
       <c r="S3">
-        <v>0.006433137623739356</v>
+        <v>5.39180510265849E-05</v>
       </c>
       <c r="T3">
-        <v>0.006433137623739355</v>
+        <v>5.39180510265849E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.305742</v>
+        <v>0.002991666666666667</v>
       </c>
       <c r="H4">
-        <v>0.9172259999999999</v>
+        <v>0.008975</v>
       </c>
       <c r="I4">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="J4">
-        <v>0.03501796853435325</v>
+        <v>0.0003566413595017623</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2684466666666667</v>
+        <v>0.007068666666666667</v>
       </c>
       <c r="N4">
-        <v>0.8053399999999999</v>
+        <v>0.021206</v>
       </c>
       <c r="O4">
-        <v>0.496687169233445</v>
+        <v>0.01076299187421013</v>
       </c>
       <c r="P4">
-        <v>0.4966871692334449</v>
+        <v>0.01076299187421013</v>
       </c>
       <c r="Q4">
-        <v>0.08207542075999999</v>
+        <v>2.114709444444445E-05</v>
       </c>
       <c r="R4">
-        <v>0.7386787868399999</v>
+        <v>0.00019032385</v>
       </c>
       <c r="S4">
-        <v>0.01739297566363376</v>
+        <v>3.838528054324723E-06</v>
       </c>
       <c r="T4">
-        <v>0.01739297566363376</v>
+        <v>3.838528054324723E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>25.092532</v>
       </c>
       <c r="I5">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391614</v>
       </c>
       <c r="J5">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1727373333333333</v>
+        <v>0.5503976666666667</v>
       </c>
       <c r="N5">
-        <v>0.518212</v>
+        <v>1.651193</v>
       </c>
       <c r="O5">
-        <v>0.3196032127335063</v>
+        <v>0.8380541753160734</v>
       </c>
       <c r="P5">
-        <v>0.3196032127335063</v>
+        <v>0.8380541753160734</v>
       </c>
       <c r="Q5">
-        <v>1.444805688087111</v>
+        <v>4.603623687852888</v>
       </c>
       <c r="R5">
-        <v>13.003251192784</v>
+        <v>41.432613190676</v>
       </c>
       <c r="S5">
-        <v>0.3061753438347985</v>
+        <v>0.8356296286376845</v>
       </c>
       <c r="T5">
-        <v>0.3061753438347984</v>
+        <v>0.8356296286376846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.092532</v>
       </c>
       <c r="I6">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391614</v>
       </c>
       <c r="J6">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391616</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.297871</v>
       </c>
       <c r="O6">
-        <v>0.1837096180330487</v>
+        <v>0.1511828328097164</v>
       </c>
       <c r="P6">
-        <v>0.1837096180330487</v>
+        <v>0.1511828328097164</v>
       </c>
       <c r="Q6">
         <v>0.8304819554857776</v>
@@ -818,10 +818,10 @@
         <v>7.474337599371999</v>
       </c>
       <c r="S6">
-        <v>0.1759912079292167</v>
+        <v>0.1507454507813052</v>
       </c>
       <c r="T6">
-        <v>0.1759912079292167</v>
+        <v>0.1507454507813052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>25.092532</v>
       </c>
       <c r="I7">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391614</v>
       </c>
       <c r="J7">
-        <v>0.9579858137724531</v>
+        <v>0.9971069332391616</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2684466666666667</v>
+        <v>0.007068666666666667</v>
       </c>
       <c r="N7">
-        <v>0.8053399999999999</v>
+        <v>0.021206</v>
       </c>
       <c r="O7">
-        <v>0.496687169233445</v>
+        <v>0.01076299187421013</v>
       </c>
       <c r="P7">
-        <v>0.4966871692334449</v>
+        <v>0.01076299187421013</v>
       </c>
       <c r="Q7">
-        <v>2.245335524542222</v>
+        <v>0.05912358151022221</v>
       </c>
       <c r="R7">
-        <v>20.20801972088</v>
+        <v>0.532112233592</v>
       </c>
       <c r="S7">
-        <v>0.4758192620084379</v>
+        <v>0.01073185382017168</v>
       </c>
       <c r="T7">
-        <v>0.4758192620084378</v>
+        <v>0.01073185382017168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.061084</v>
+        <v>0.02127666666666667</v>
       </c>
       <c r="H8">
-        <v>0.183252</v>
+        <v>0.06383</v>
       </c>
       <c r="I8">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="J8">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1727373333333333</v>
+        <v>0.5503976666666667</v>
       </c>
       <c r="N8">
-        <v>0.518212</v>
+        <v>1.651193</v>
       </c>
       <c r="O8">
-        <v>0.3196032127335063</v>
+        <v>0.8380541753160734</v>
       </c>
       <c r="P8">
-        <v>0.3196032127335063</v>
+        <v>0.8380541753160734</v>
       </c>
       <c r="Q8">
-        <v>0.01055148726933333</v>
+        <v>0.01171062768777778</v>
       </c>
       <c r="R8">
-        <v>0.094963385424</v>
+        <v>0.10539564919</v>
       </c>
       <c r="S8">
-        <v>0.002236013651727713</v>
+        <v>0.002125661897968025</v>
       </c>
       <c r="T8">
-        <v>0.002236013651727713</v>
+        <v>0.002125661897968025</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.061084</v>
+        <v>0.02127666666666667</v>
       </c>
       <c r="H9">
-        <v>0.183252</v>
+        <v>0.06383</v>
       </c>
       <c r="I9">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="J9">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.297871</v>
       </c>
       <c r="O9">
-        <v>0.1837096180330487</v>
+        <v>0.1511828328097164</v>
       </c>
       <c r="P9">
-        <v>0.1837096180330487</v>
+        <v>0.1511828328097164</v>
       </c>
       <c r="Q9">
-        <v>0.006065050721333333</v>
+        <v>0.002112567325555555</v>
       </c>
       <c r="R9">
-        <v>0.054585456492</v>
+        <v>0.01901310593</v>
       </c>
       <c r="S9">
-        <v>0.001285272480092676</v>
+        <v>0.0003834639773846144</v>
       </c>
       <c r="T9">
-        <v>0.001285272480092676</v>
+        <v>0.0003834639773846144</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.061084</v>
+        <v>0.02127666666666667</v>
       </c>
       <c r="H10">
-        <v>0.183252</v>
+        <v>0.06383</v>
       </c>
       <c r="I10">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="J10">
-        <v>0.006996217693193719</v>
+        <v>0.002536425401336767</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2684466666666667</v>
+        <v>0.007068666666666667</v>
       </c>
       <c r="N10">
-        <v>0.8053399999999999</v>
+        <v>0.021206</v>
       </c>
       <c r="O10">
-        <v>0.496687169233445</v>
+        <v>0.01076299187421013</v>
       </c>
       <c r="P10">
-        <v>0.4966871692334449</v>
+        <v>0.01076299187421013</v>
       </c>
       <c r="Q10">
-        <v>0.01639779618666667</v>
+        <v>0.0001503976644444444</v>
       </c>
       <c r="R10">
-        <v>0.14758016568</v>
+        <v>0.00135357898</v>
       </c>
       <c r="S10">
-        <v>0.003474931561373331</v>
+        <v>2.72995259841278E-05</v>
       </c>
       <c r="T10">
-        <v>0.00347493156137333</v>
+        <v>2.72995259841278E-05</v>
       </c>
     </row>
   </sheetData>
